--- a/Hardware/Electrical Components/Module - Logic/BOM Logic Module - Power V7.2.xlsx
+++ b/Hardware/Electrical Components/Module - Logic/BOM Logic Module - Power V7.2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E90036-B3E5-4F22-9373-B813A9485EB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB17F71-EB80-409E-A0F7-DFB73697D1A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32010" yWindow="2175" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Link</t>
   </si>
@@ -70,9 +70,6 @@
     <t>SOT23-3</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
     <t>Feather M0 Wifi</t>
   </si>
   <si>
@@ -164,6 +161,15 @@
   </si>
   <si>
     <t>455-2268-ND</t>
+  </si>
+  <si>
+    <t>Powerboard 7.2</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -247,7 +253,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -268,6 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -554,7 +561,7 @@
   <dimension ref="B1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
@@ -600,7 +607,7 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -611,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>6</v>
@@ -635,7 +642,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
@@ -657,7 +664,7 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -665,7 +672,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -698,7 +705,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -722,7 +729,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -730,7 +737,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -754,7 +761,7 @@
     </row>
     <row r="8" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -769,7 +776,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -777,7 +784,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -799,7 +806,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -807,7 +814,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -831,7 +838,7 @@
     </row>
     <row r="11" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -839,7 +846,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -859,7 +866,7 @@
     </row>
     <row r="12" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -867,13 +874,13 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="5">
         <v>1</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>4</v>
@@ -889,12 +896,12 @@
         <v>0.62</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -902,13 +909,13 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="5">
         <v>1</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>4</v>
@@ -924,12 +931,12 @@
         <v>0.66</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -945,19 +952,32 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="15" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="14">
+        <v>1</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="14">
+        <v>20</v>
+      </c>
+    </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="M17" s="4" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N17" s="2">
-        <f>SUM(N3:N14)</f>
-        <v>50.529999999999994</v>
+        <f>SUM(N3:N15)</f>
+        <v>70.53</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>4</v>
@@ -966,10 +986,10 @@
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>4</v>
@@ -978,7 +998,7 @@
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>4</v>
@@ -986,7 +1006,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>4</v>
@@ -994,7 +1014,7 @@
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>4</v>
@@ -1021,8 +1041,9 @@
     <hyperlink ref="K10" r:id="rId14" xr:uid="{E4688478-3C6C-46AA-B8D1-9AEF9A188317}"/>
     <hyperlink ref="G19" r:id="rId15" xr:uid="{C062712D-18D1-4784-B1D5-220F73D313B8}"/>
     <hyperlink ref="K11" r:id="rId16" display="https://www.digikey.com/product-detail/en/jst-sales-america-inc/XHP-5/455-2268-ND/1125486" xr:uid="{38EE6EC7-66A2-4AB9-B68C-6E74A8CB4737}"/>
+    <hyperlink ref="K15" r:id="rId17" xr:uid="{FCB00E81-3160-427C-85DC-BEE28488465A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>